--- a/2023-bis-2025-Spielerstatistiken-R.xlsx
+++ b/2023-bis-2025-Spielerstatistiken-R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\MEK 2024-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0E2FBF-4FD4-4E89-A1B9-7CAE5B64497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73D0B33-99C8-4D98-AACF-B0D70046965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Sharapa, Vasily</t>
   </si>
   <si>
@@ -369,10 +366,13 @@
     <t>s2324</t>
   </si>
   <si>
-    <t>sgp2324</t>
-  </si>
-  <si>
     <t>eff2324</t>
+  </si>
+  <si>
+    <t>spg2324</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -726,9 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -738,81 +736,81 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>97</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>99</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>100</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>101</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>102</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>104</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>105</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>106</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>107</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>108</v>
-      </c>
-      <c r="V1" t="s">
-        <v>109</v>
       </c>
       <c r="W1" t="s">
         <v>110</v>
       </c>
       <c r="X1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -892,7 +890,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -972,7 +970,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1052,7 +1050,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1132,7 +1130,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1212,7 +1210,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1292,7 +1290,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1372,7 +1370,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1452,7 +1450,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1532,7 +1530,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1612,7 +1610,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1692,7 +1690,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1772,7 +1770,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1852,7 +1850,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1932,7 +1930,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2012,7 +2010,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2092,7 +2090,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2172,7 +2170,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2252,7 +2250,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2332,7 +2330,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2412,7 +2410,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2492,7 +2490,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2572,7 +2570,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2652,7 +2650,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2732,7 +2730,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2812,7 +2810,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2892,7 +2890,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2972,7 +2970,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3052,7 +3050,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3132,7 +3130,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3212,7 +3210,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3292,7 +3290,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3372,7 +3370,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3452,7 +3450,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3532,7 +3530,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3612,7 +3610,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3692,7 +3690,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3772,7 +3770,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3852,7 +3850,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3939,7 +3937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3949,244 +3949,244 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
         <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4194,21 +4194,21 @@
         <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/2023-bis-2025-Spielerstatistiken-R.xlsx
+++ b/2023-bis-2025-Spielerstatistiken-R.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\MEK 2024-25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\MEK 2024-25\2024-25 R Outputs\MEK-Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73D0B33-99C8-4D98-AACF-B0D70046965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C0108B-9398-49A1-8FF0-0CAC48CBA74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="155">
   <si>
     <t>Sharapa, Vasily</t>
   </si>
@@ -373,6 +373,135 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>LA76</t>
+  </si>
+  <si>
+    <t>MB91</t>
+  </si>
+  <si>
+    <t>MS41</t>
+  </si>
+  <si>
+    <t>DB24</t>
+  </si>
+  <si>
+    <t>KB23</t>
+  </si>
+  <si>
+    <t>RC16</t>
+  </si>
+  <si>
+    <t>MD27</t>
+  </si>
+  <si>
+    <t>DE11</t>
+  </si>
+  <si>
+    <t>GE60</t>
+  </si>
+  <si>
+    <t>JF21</t>
+  </si>
+  <si>
+    <t>DH69</t>
+  </si>
+  <si>
+    <t>AK14</t>
+  </si>
+  <si>
+    <t>FK53</t>
+  </si>
+  <si>
+    <t>SK07</t>
+  </si>
+  <si>
+    <t>CL44</t>
+  </si>
+  <si>
+    <t>SL18</t>
+  </si>
+  <si>
+    <t>NN22</t>
+  </si>
+  <si>
+    <t>DP92</t>
+  </si>
+  <si>
+    <t>JP35</t>
+  </si>
+  <si>
+    <t>AR40</t>
+  </si>
+  <si>
+    <t>MS26</t>
+  </si>
+  <si>
+    <t>MS66</t>
+  </si>
+  <si>
+    <t>CS77</t>
+  </si>
+  <si>
+    <t>VS03</t>
+  </si>
+  <si>
+    <t>AS74</t>
+  </si>
+  <si>
+    <t>CS13</t>
+  </si>
+  <si>
+    <t>TT95</t>
+  </si>
+  <si>
+    <t>AV66</t>
+  </si>
+  <si>
+    <t>AV10</t>
+  </si>
+  <si>
+    <t>YV19</t>
+  </si>
+  <si>
+    <t>CV08</t>
+  </si>
+  <si>
+    <t>DW17</t>
+  </si>
+  <si>
+    <t>TZ20</t>
+  </si>
+  <si>
+    <t>EO28</t>
+  </si>
+  <si>
+    <t>TS12</t>
+  </si>
+  <si>
+    <t>LM03</t>
+  </si>
+  <si>
+    <t>TT05</t>
+  </si>
+  <si>
+    <t>AL06</t>
+  </si>
+  <si>
+    <t>SG05</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -724,9 +853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -734,169 +865,181 @@
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
       <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>95</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>97</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>98</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>99</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>100</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>101</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>103</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>104</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>105</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>106</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>107</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>108</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>110</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F40" si="0">D2+E2</f>
+      <c r="H2">
+        <f t="shared" ref="H2:H40" si="0">F2+G2</f>
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>14</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I40" si="1">G2-H2</f>
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
+        <f t="shared" ref="K2:K40" si="1">I2-J2</f>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>8</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>16</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>4</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>9</v>
       </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P40" si="2">N2+O2</f>
+      <c r="R2">
+        <f t="shared" ref="R2:R40" si="2">P2+Q2</f>
         <v>13</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>13</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>17</v>
       </c>
-      <c r="S2">
-        <f>Q2-R2</f>
+      <c r="U2">
+        <f>S2-T2</f>
         <v>-4</v>
       </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
         <v>10</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>96</v>
       </c>
-      <c r="W2">
-        <f>IF(M2&gt;0, V2/M2, 0)</f>
+      <c r="Y2">
+        <f>IF(O2&gt;0, X2/O2, 0)</f>
         <v>6</v>
       </c>
-      <c r="X2">
-        <f>IF(N2&gt;0, V2/N2, 0)</f>
+      <c r="Z2">
+        <f>IF(P2&gt;0, X2/P2, 0)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -905,318 +1048,342 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>16</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>5</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>9</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>13</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S17" si="3">Q3-R3</f>
+      <c r="U3">
+        <f t="shared" ref="U3:U17" si="3">S3-T3</f>
         <v>-4</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
         <v>4</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>36</v>
       </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W17" si="4">IF(M3&gt;0, V3/M3, 0)</f>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y17" si="4">IF(O3&gt;0, X3/O3, 0)</f>
         <v>2.25</v>
       </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X17" si="5">IF(N3&gt;0, V3/N3, 0)</f>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z17" si="5">IF(P3&gt;0, X3/P3, 0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>4</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>5</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
       <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>6</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>4</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>5</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>9</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>12</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>6</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>8</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>21</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1225,158 +1392,170 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>13</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>6</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>11</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>10</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>12</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
       <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
         <v>49</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <f t="shared" si="4"/>
         <v>3.7692307692307692</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <f t="shared" si="5"/>
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>11</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>4</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1385,78 +1564,84 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>13</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>4</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>3</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>9</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <f t="shared" si="3"/>
         <v>-6</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>4</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>25</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <f t="shared" si="4"/>
         <v>1.9230769230769231</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1465,78 +1650,84 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1545,238 +1736,256 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
       <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>8</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>12</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>10</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>4</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>6</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>8</v>
       </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>17</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>13</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>15</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>29</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
         <v>13</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>4</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>12</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>11</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
       <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
         <v>26</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1785,431 +1994,461 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>12</v>
       </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
         <v>6</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>13</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>13</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
         <v>6</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>27</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>11</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>23</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>15</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>6</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>24</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>8</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>5</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>3</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>5</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
         <v>10</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>26</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <f t="shared" si="5"/>
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>4</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>18</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>26</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>18</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
         <v>7</v>
       </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
       <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>7</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>4</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
         <v>6</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>21</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>2</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
-        <f t="shared" ref="S18:S40" si="6">Q18-R18</f>
         <v>0</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
+        <f t="shared" ref="U18:U40" si="6">S18-T18</f>
         <v>0</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <f t="shared" ref="W18:W40" si="7">IF(M18&gt;0, V18/M18, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <f t="shared" ref="X18:X40" si="8">IF(N18&gt;0, V18/N18, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ref="Y18:Y40" si="7">IF(O18&gt;0, X18/O18, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ref="Z18:Z40" si="8">IF(P18&gt;0, X18/P18, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>9</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>8</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>6</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
@@ -2217,559 +2456,601 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>3</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>154</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>3</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
       <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>3</v>
       </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
       <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
         <v>5</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>4</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>10</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>9</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>11</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>12</v>
       </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
       <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>8</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>14</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>6</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>38</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <f t="shared" si="7"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>9</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>8</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>12</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>16</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
         <v>6</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>2</v>
-      </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-      <c r="R23">
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
         <v>4</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>27</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>3</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>16</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>4</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>9</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>14</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>17</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
       <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
       <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
         <v>3</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>11</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>8</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>7</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>8</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
         <v>11</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>11</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>11</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>12</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>12</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <f t="shared" si="7"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>9</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
         <v>11</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>-9</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>12</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
         <v>0</v>
       </c>
@@ -2777,206 +3058,224 @@
         <v>0</v>
       </c>
       <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>15</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
         <v>7</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>13</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>13</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
         <v>18</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
         <v>7</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
       <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>4</v>
       </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="S27">
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
       <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27">
         <v>5</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <f t="shared" si="7"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>7</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
       <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>4</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>154</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2985,78 +3284,84 @@
         <v>0</v>
       </c>
       <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
       <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="R29">
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
         <v>5</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
       <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
         <v>5</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3065,270 +3370,288 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
       <c r="V30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>13</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>5</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>10</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
         <v>45</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
         <v>12</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
         <v>6</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>7</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>9</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
         <v>24</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>19</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <f t="shared" si="7"/>
         <v>1.5833333333333333</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>15</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>6</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>4</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>15</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>16</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
         <v>8</v>
       </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
         <v>15</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>5</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>4</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>13</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>12</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
         <v>4</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>42</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <f t="shared" si="7"/>
         <v>2.8</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <f t="shared" si="8"/>
         <v>8.4</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>3</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3337,126 +3660,138 @@
         <v>0</v>
       </c>
       <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>4</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
       <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>6</v>
       </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34">
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
         <v>11</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>4</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>6</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>5</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T34">
-        <v>2</v>
-      </c>
-      <c r="U34">
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
         <v>10</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>38</v>
       </c>
-      <c r="W34">
+      <c r="Y34">
         <f t="shared" si="7"/>
         <v>3.4545454545454546</v>
       </c>
-      <c r="X34">
+      <c r="Z34">
         <f t="shared" si="8"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3465,238 +3800,256 @@
         <v>0</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
         <v>4</v>
       </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
       <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
       <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>2</v>
-      </c>
       <c r="V35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35">
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="X35">
+      <c r="Z35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>15</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>9</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>20</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>14</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>12</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
         <v>13</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
       <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>5</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <v>4</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
         <v>8</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>25</v>
       </c>
-      <c r="W36">
+      <c r="Y36">
         <f t="shared" si="7"/>
         <v>1.9230769230769231</v>
       </c>
-      <c r="X36">
+      <c r="Z36">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>18</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>21</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>9</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>30</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>18</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37">
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
         <v>6</v>
       </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
         <v>16</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>11</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>9</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>18</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <v>16</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37">
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
         <v>41</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <v>91</v>
       </c>
-      <c r="W37">
+      <c r="Y37">
         <f t="shared" si="7"/>
         <v>5.6875</v>
       </c>
-      <c r="X37">
+      <c r="Z37">
         <f t="shared" si="8"/>
         <v>8.2727272727272734</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3705,225 +4058,243 @@
         <v>0</v>
       </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
         <v>13</v>
       </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
       <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>4</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <v>8</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
       <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
         <v>8</v>
       </c>
-      <c r="W38">
+      <c r="Y38">
         <f t="shared" si="7"/>
         <v>0.61538461538461542</v>
       </c>
-      <c r="X38">
+      <c r="Z38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
       <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
       <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
       <c r="V39">
         <v>0</v>
       </c>
       <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X39">
+      <c r="Z39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>11</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>6</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>8</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>15</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>12</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
         <v>8</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
         <v>14</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <v>5</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>10</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>17</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <v>16</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T40">
-        <v>2</v>
-      </c>
-      <c r="U40">
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
         <v>10</v>
       </c>
-      <c r="V40">
+      <c r="X40">
         <v>46</v>
       </c>
-      <c r="W40">
+      <c r="Y40">
         <f t="shared" si="7"/>
         <v>3.2857142857142856</v>
       </c>
-      <c r="X40">
+      <c r="Z40">
         <f t="shared" si="8"/>
         <v>9.1999999999999993</v>
       </c>
@@ -3937,7 +4308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
